--- a/biology/Médecine/Philip_Barrow/Philip_Barrow.xlsx
+++ b/biology/Médecine/Philip_Barrow/Philip_Barrow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Philip Barrow ou Philip Barrough[1] est un chirurgien et écrivain anglais, fils de John Barrow, du comté de Suffolk.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philip Barrow ou Philip Barrough est un chirurgien et écrivain anglais, fils de John Barrow, du comté de Suffolk.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Philip Barrow obtient de l'université de Cambridge, en 1559, une licence pour pratiquer la chirurgie, et en 1572, une licence similaire pour pratiquer la médecine[2].
-Il est l'auteur d'un manuel de médecine contenant les  causes, signes et remèdes des maladies internes dans le corps de l'homme de la tête aux pieds[3],
-[4].
-Cet ouvrage populaire atteint au moins sa septième édition en 1652[2]. L'impression de 1617 est appelée la cinquième édition[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philip Barrow obtient de l'université de Cambridge, en 1559, une licence pour pratiquer la chirurgie, et en 1572, une licence similaire pour pratiquer la médecine.
+Il est l'auteur d'un manuel de médecine contenant les  causes, signes et remèdes des maladies internes dans le corps de l'homme de la tête aux pieds,
+.
+Cet ouvrage populaire atteint au moins sa septième édition en 1652. L'impression de 1617 est appelée la cinquième édition.
 </t>
         </is>
       </c>
